--- a/src/analysis_examples/circadb/results_jtk/cosinor_10451363_srf_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10451363_srf_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.16105722839081504, 0.32291271406634814]</t>
+          <t>[0.1648554689249374, 0.3191144735322258]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.615345729235386e-06</v>
+        <v>1.832356154363168e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.615345729235386e-06</v>
+        <v>1.832356154363168e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7421580242714629</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.0440528138056173, -0.44026323473730855]</t>
+          <t>[-1.0692107129334634, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.598876089678683e-05</v>
+        <v>0.0001166372145549044</v>
       </c>
       <c r="R2" t="n">
-        <v>4.598876089678683e-05</v>
+        <v>0.0001166372145549044</v>
       </c>
       <c r="S2" t="n">
         <v>0.4426408505049643</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40149940009772433, 0.4837823009122042]</t>
+          <t>[0.4014614196542141, 0.4838202813557144]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.801761761761831</v>
       </c>
       <c r="X2" t="n">
-        <v>1.662062062062103</v>
+        <v>1.567087087087127</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.941461461461559</v>
+        <v>4.036436436436536</v>
       </c>
     </row>
   </sheetData>
